--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_10_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852833.1685207696</v>
+        <v>-855620.0170724537</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>40.56396950452723</v>
+        <v>263.8007384648351</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>50.62599207457401</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.1401505658317</v>
       </c>
       <c r="H2" t="n">
-        <v>317.3272085212144</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>127.1027562073891</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>14.02351548697402</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>159.7401194789956</v>
@@ -713,10 +713,10 @@
         <v>213.629125193556</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1726459518922</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>157.1986638442615</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -789,7 +789,7 @@
         <v>150.1908056518375</v>
       </c>
       <c r="T3" t="n">
-        <v>179.9910248729896</v>
+        <v>195.500860017044</v>
       </c>
       <c r="U3" t="n">
         <v>225.8652580002712</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>28.80555004842112</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>24.77579277565484</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>4.932574202174479</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.6758738525874</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>207.1110620291632</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>220.3268149133366</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>52.34182987885091</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>48.27375013634381</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>28.587764186329</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>88.28080497687719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>289.5850933293725</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>185.3830360500461</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
         <v>118.4960408938903</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>143.1636173512131</v>
       </c>
       <c r="G10" t="n">
-        <v>48.00972033033464</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1540,7 +1540,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>132.6315337216688</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>40.96105405076471</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>194.5872785643522</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>49.33251894259001</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,13 +2062,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>104.6857048437767</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>49.33251894258854</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>245.8640357413583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2476,16 +2476,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>137.0965178272088</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2606,7 +2606,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>27.02919805176115</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3332,7 +3332,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="36">
@@ -3433,7 +3433,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652652</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002299</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541841</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -3983,10 +3983,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>409.8033385187866</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>501.6200758311315</v>
+        <v>1265.205519876331</v>
       </c>
       <c r="C2" t="n">
-        <v>501.6200758311315</v>
+        <v>1214.068154144438</v>
       </c>
       <c r="D2" t="n">
-        <v>501.6200758311315</v>
+        <v>855.8024555376871</v>
       </c>
       <c r="E2" t="n">
-        <v>501.6200758311315</v>
+        <v>470.014202939443</v>
       </c>
       <c r="F2" t="n">
-        <v>501.6200758311315</v>
+        <v>470.014202939443</v>
       </c>
       <c r="G2" t="n">
-        <v>501.6200758311315</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H2" t="n">
-        <v>181.087541971319</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
@@ -4331,49 +4331,49 @@
         <v>222.5825185260961</v>
       </c>
       <c r="K2" t="n">
-        <v>597.9358023929382</v>
+        <v>336.3370924546339</v>
       </c>
       <c r="L2" t="n">
-        <v>1115.871369579761</v>
+        <v>854.2726596414566</v>
       </c>
       <c r="M2" t="n">
-        <v>1351.383212434392</v>
+        <v>1447.182319109601</v>
       </c>
       <c r="N2" t="n">
-        <v>1506.281317347019</v>
+        <v>2035.053879190092</v>
       </c>
       <c r="O2" t="n">
-        <v>2016.204123625555</v>
+        <v>2544.976685468629</v>
       </c>
       <c r="P2" t="n">
-        <v>2413.737058395677</v>
+        <v>2623.928899148983</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2620.880809822083</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="S2" t="n">
-        <v>2459.527153782693</v>
+        <v>2473.692320941253</v>
       </c>
       <c r="T2" t="n">
-        <v>2243.740158637687</v>
+        <v>2257.905325796247</v>
       </c>
       <c r="U2" t="n">
-        <v>1990.030415251937</v>
+        <v>2257.905325796247</v>
       </c>
       <c r="V2" t="n">
-        <v>1658.967527908367</v>
+        <v>2257.905325796247</v>
       </c>
       <c r="W2" t="n">
-        <v>1306.198872638253</v>
+        <v>1905.136670526133</v>
       </c>
       <c r="X2" t="n">
-        <v>932.7331143771728</v>
+        <v>1531.670912265053</v>
       </c>
       <c r="Y2" t="n">
-        <v>542.5937824013611</v>
+        <v>1531.670912265053</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4383,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>971.5626182035379</v>
+        <v>955.8961180580286</v>
       </c>
       <c r="C3" t="n">
         <v>797.1095889224109</v>
@@ -4410,19 +4410,19 @@
         <v>160.1878564074967</v>
       </c>
       <c r="K3" t="n">
-        <v>226.0697865412913</v>
+        <v>208.7004102544828</v>
       </c>
       <c r="L3" t="n">
-        <v>704.7553850151332</v>
+        <v>320.2540668779002</v>
       </c>
       <c r="M3" t="n">
-        <v>854.2901088208679</v>
+        <v>930.8368037961347</v>
       </c>
       <c r="N3" t="n">
-        <v>1496.740167327148</v>
+        <v>1573.286862302415</v>
       </c>
       <c r="O3" t="n">
-        <v>2018.040779802589</v>
+        <v>2094.587474777856</v>
       </c>
       <c r="P3" t="n">
         <v>2419.427412310556</v>
@@ -4437,22 +4437,22 @@
         <v>2454.735060440159</v>
       </c>
       <c r="T3" t="n">
-        <v>2272.925944406836</v>
+        <v>2257.259444261327</v>
       </c>
       <c r="U3" t="n">
-        <v>2044.779219154037</v>
+        <v>2029.112719008528</v>
       </c>
       <c r="V3" t="n">
-        <v>1809.627110922294</v>
+        <v>1793.960610776785</v>
       </c>
       <c r="W3" t="n">
-        <v>1555.389754194093</v>
+        <v>1539.723254048583</v>
       </c>
       <c r="X3" t="n">
-        <v>1347.53825398856</v>
+        <v>1331.871753843051</v>
       </c>
       <c r="Y3" t="n">
-        <v>1139.777955223606</v>
+        <v>1124.111455078097</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.5908670375232</v>
+        <v>106.8234880487805</v>
       </c>
       <c r="C4" t="n">
-        <v>199.5908670375232</v>
+        <v>77.72697284835512</v>
       </c>
       <c r="D4" t="n">
-        <v>199.5908670375232</v>
+        <v>77.72697284835512</v>
       </c>
       <c r="E4" t="n">
-        <v>199.5908670375232</v>
+        <v>77.72697284835512</v>
       </c>
       <c r="F4" t="n">
-        <v>52.70091953961285</v>
+        <v>77.72697284835512</v>
       </c>
       <c r="G4" t="n">
-        <v>52.70091953961285</v>
+        <v>77.72697284835512</v>
       </c>
       <c r="H4" t="n">
-        <v>52.70091953961285</v>
+        <v>77.72697284835512</v>
       </c>
       <c r="I4" t="n">
-        <v>52.70091953961285</v>
+        <v>77.72697284835512</v>
       </c>
       <c r="J4" t="n">
         <v>52.70091953961285</v>
@@ -4507,31 +4507,31 @@
         <v>966.2448635766702</v>
       </c>
       <c r="Q4" t="n">
-        <v>966.2448635766702</v>
+        <v>961.2624653926556</v>
       </c>
       <c r="R4" t="n">
-        <v>966.2448635766702</v>
+        <v>826.2363301880218</v>
       </c>
       <c r="S4" t="n">
-        <v>966.2448635766702</v>
+        <v>617.0332372292712</v>
       </c>
       <c r="T4" t="n">
-        <v>966.2448635766702</v>
+        <v>617.0332372292712</v>
       </c>
       <c r="U4" t="n">
-        <v>966.2448635766702</v>
+        <v>617.0332372292712</v>
       </c>
       <c r="V4" t="n">
-        <v>711.5603753707834</v>
+        <v>617.0332372292712</v>
       </c>
       <c r="W4" t="n">
-        <v>422.1432053338228</v>
+        <v>327.6160671923106</v>
       </c>
       <c r="X4" t="n">
-        <v>199.5908670375232</v>
+        <v>327.6160671923106</v>
       </c>
       <c r="Y4" t="n">
-        <v>199.5908670375232</v>
+        <v>106.8234880487805</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1687.653208860584</v>
+        <v>1018.260224823852</v>
       </c>
       <c r="C5" t="n">
-        <v>1318.690691920173</v>
+        <v>649.2977078834406</v>
       </c>
       <c r="D5" t="n">
-        <v>1318.690691920173</v>
+        <v>596.427172652278</v>
       </c>
       <c r="E5" t="n">
-        <v>1318.690691920173</v>
+        <v>596.427172652278</v>
       </c>
       <c r="F5" t="n">
-        <v>907.7047871305651</v>
+        <v>589.4816719030746</v>
       </c>
       <c r="G5" t="n">
-        <v>490.6170053669925</v>
+        <v>172.393890139502</v>
       </c>
       <c r="H5" t="n">
         <v>172.393890139502</v>
@@ -4568,19 +4568,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K5" t="n">
-        <v>156.4983241075885</v>
+        <v>477.4022825530416</v>
       </c>
       <c r="L5" t="n">
-        <v>709.3115823537878</v>
+        <v>616.7309383942948</v>
       </c>
       <c r="M5" t="n">
-        <v>1341.029393337099</v>
+        <v>1248.448749377606</v>
       </c>
       <c r="N5" t="n">
-        <v>1968.337061396946</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O5" t="n">
-        <v>2489.327531709521</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P5" t="n">
         <v>2600.061856959047</v>
@@ -4592,25 +4592,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S5" t="n">
-        <v>2635.045976980643</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="T5" t="n">
-        <v>2420.246115248354</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="U5" t="n">
-        <v>2371.484751474269</v>
+        <v>2478.830939477471</v>
       </c>
       <c r="V5" t="n">
-        <v>2040.421864130698</v>
+        <v>2147.7680521339</v>
       </c>
       <c r="W5" t="n">
-        <v>1687.653208860584</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="X5" t="n">
-        <v>1687.653208860584</v>
+        <v>1794.999396863786</v>
       </c>
       <c r="Y5" t="n">
-        <v>1687.653208860584</v>
+        <v>1404.860064887974</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J6" t="n">
-        <v>171.3601713965085</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>238.9679910598655</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>376.1975890755595</v>
+        <v>599.2575280293014</v>
       </c>
       <c r="M6" t="n">
-        <v>1016.742938542664</v>
+        <v>778.7548643839062</v>
       </c>
       <c r="N6" t="n">
-        <v>1668.916817845373</v>
+        <v>1430.928743686615</v>
       </c>
       <c r="O6" t="n">
         <v>1980.364752439338</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>220.6921467113112</v>
+        <v>356.2057630587627</v>
       </c>
       <c r="C7" t="n">
-        <v>220.6921467113112</v>
+        <v>356.2057630587627</v>
       </c>
       <c r="D7" t="n">
-        <v>70.57550729897547</v>
+        <v>206.089123646427</v>
       </c>
       <c r="E7" t="n">
-        <v>70.57550729897547</v>
+        <v>206.089123646427</v>
       </c>
       <c r="F7" t="n">
-        <v>70.57550729897547</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="G7" t="n">
-        <v>70.57550729897547</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="H7" t="n">
-        <v>70.57550729897547</v>
+        <v>177.2125941652866</v>
       </c>
       <c r="I7" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J7" t="n">
         <v>52.70091953961285</v>
@@ -4765,10 +4765,10 @@
         <v>537.8542278890025</v>
       </c>
       <c r="X7" t="n">
-        <v>309.8646769909851</v>
+        <v>537.8542278890025</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.6921467113112</v>
+        <v>537.8542278890025</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1503.96547941998</v>
+        <v>1658.704239084763</v>
       </c>
       <c r="C8" t="n">
-        <v>1135.002962479569</v>
+        <v>1658.704239084763</v>
       </c>
       <c r="D8" t="n">
-        <v>776.7372638728182</v>
+        <v>1300.438540478013</v>
       </c>
       <c r="E8" t="n">
-        <v>776.7372638728182</v>
+        <v>914.6502878797686</v>
       </c>
       <c r="F8" t="n">
-        <v>589.4816719030746</v>
+        <v>503.664383090161</v>
       </c>
       <c r="G8" t="n">
-        <v>172.393890139502</v>
+        <v>490.6170053669925</v>
       </c>
       <c r="H8" t="n">
         <v>172.393890139502</v>
@@ -4805,19 +4805,19 @@
         <v>73.93516953299616</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4022825530416</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L8" t="n">
-        <v>1030.215540799241</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M8" t="n">
-        <v>1216.914953624649</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N8" t="n">
-        <v>1844.222621684495</v>
+        <v>1623.585605852676</v>
       </c>
       <c r="O8" t="n">
-        <v>2391.383826451573</v>
+        <v>2170.746810619753</v>
       </c>
       <c r="P8" t="n">
         <v>2600.061856959047</v>
@@ -4829,25 +4829,25 @@
         <v>2635.045976980643</v>
       </c>
       <c r="S8" t="n">
-        <v>2478.830939477471</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="T8" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="U8" t="n">
-        <v>2264.031077745182</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V8" t="n">
-        <v>2264.031077745182</v>
+        <v>2303.983089637072</v>
       </c>
       <c r="W8" t="n">
-        <v>2264.031077745182</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="X8" t="n">
-        <v>1890.565319484102</v>
+        <v>1951.214434366958</v>
       </c>
       <c r="Y8" t="n">
-        <v>1890.565319484102</v>
+        <v>1951.214434366958</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>52.70091953961285</v>
       </c>
       <c r="J9" t="n">
-        <v>171.3601713965085</v>
+        <v>80.74572481091087</v>
       </c>
       <c r="K9" t="n">
-        <v>500.7885757023184</v>
+        <v>410.1741291167207</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.150115568437</v>
+        <v>914.5356689828393</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.647451923042</v>
+        <v>1094.033005337444</v>
       </c>
       <c r="N9" t="n">
-        <v>1836.821331225751</v>
+        <v>1746.206884640153</v>
       </c>
       <c r="O9" t="n">
-        <v>1996.333643894511</v>
+        <v>2295.642893392876</v>
       </c>
       <c r="P9" t="n">
         <v>2404.332520920175</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>288.0063572272204</v>
+        <v>197.3106340357877</v>
       </c>
       <c r="C10" t="n">
-        <v>119.0701742993135</v>
+        <v>197.3106340357877</v>
       </c>
       <c r="D10" t="n">
-        <v>119.0701742993135</v>
+        <v>197.3106340357877</v>
       </c>
       <c r="E10" t="n">
-        <v>119.0701742993135</v>
+        <v>197.3106340357877</v>
       </c>
       <c r="F10" t="n">
-        <v>119.0701742993135</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="G10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I10" t="n">
-        <v>70.57550729897547</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="J10" t="n">
         <v>52.70091953961285</v>
@@ -4984,28 +4984,28 @@
         <v>1052.635600998958</v>
       </c>
       <c r="R10" t="n">
-        <v>1052.635600998958</v>
+        <v>922.1576397183603</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.635600998958</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="U10" t="n">
-        <v>763.4834245766374</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="V10" t="n">
-        <v>508.7989363707505</v>
+        <v>714.7173549707657</v>
       </c>
       <c r="W10" t="n">
-        <v>508.7989363707505</v>
+        <v>425.300184933805</v>
       </c>
       <c r="X10" t="n">
-        <v>508.7989363707505</v>
+        <v>197.3106340357877</v>
       </c>
       <c r="Y10" t="n">
-        <v>288.0063572272204</v>
+        <v>197.3106340357877</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2312.991837396757</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2023.916610740955</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2299.457522348532</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>718.5507239167111</v>
+        <v>866.4638174991042</v>
       </c>
       <c r="C16" t="n">
-        <v>549.6145409888043</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D16" t="n">
-        <v>549.6145409888043</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
@@ -5434,52 +5434,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2000.509738856908</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1711.434512201106</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1456.750023995219</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1167.332853958259</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>939.3433030602413</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>718.5507239167111</v>
+        <v>866.4638174991042</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1327.958229442984</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138402</v>
+        <v>1099.968678544967</v>
       </c>
       <c r="Y19" t="n">
-        <v>866.4638174991043</v>
+        <v>879.176099401437</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>554.5813165460164</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C22" t="n">
-        <v>385.6451336181095</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D22" t="n">
-        <v>235.5284942057738</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="E22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.113569660651</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1474.429081454764</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1185.011911417804</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>957.0223605197863</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>736.2297813762561</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6069,16 +6069,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>986.1256051221279</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908939</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1388.566649095898</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>1167.774069952368</v>
       </c>
     </row>
     <row r="26">
@@ -6200,16 +6200,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6239,13 +6239,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6254,22 +6254,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6300,22 +6300,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6361,22 +6361,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6446,19 +6446,19 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6601,16 +6601,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6704,22 +6704,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,16 +6838,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
         <v>1948.813509611463</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6980,7 +6980,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>114.2598873597757</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>448.1846595309963</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>943.510265746755</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7081,13 +7081,13 @@
         <v>533.5814564942661</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580121</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345483</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.3734194384027</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797186</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.964603115002</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580121</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7354,28 +7354,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,16 +7406,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7549,31 +7549,31 @@
         <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345471</v>
+        <v>268.5553036345474</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384015</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7603,7 +7603,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7622,16 +7622,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
         <v>793.7736536168611</v>
@@ -7640,58 +7640,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319329</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656823</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150028</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942659</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580118</v>
       </c>
       <c r="G46" t="n">
         <v>268.5553036345476</v>
@@ -7801,7 +7801,7 @@
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7813,25 +7813,25 @@
         <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -7840,7 +7840,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -7979,25 +7979,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>59.90429142136243</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>88.50563792362672</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>65.71641987298243</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>17.54482453212977</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8073,7 +8073,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>241.1428747255264</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8216,22 +8216,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.3469244119842</v>
+        <v>182.6289329122089</v>
       </c>
       <c r="O5" t="n">
-        <v>354.365095955167</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8292,22 +8292,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>80.70566279614616</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>458.0981188384286</v>
       </c>
       <c r="O6" t="n">
-        <v>153.470325176974</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8453,28 +8453,28 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>437.3469244119842</v>
+        <v>89.11313093292301</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>98.93303561408925</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>65.71641987298244</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>34.56129131455263</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,10 +8544,10 @@
         <v>458.0981188384286</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>302.3325752508733</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111.3744844157162</v>
+        <v>118.9331031986454</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.1401505658317</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>317.3272085212144</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,7 +22626,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>15.50983514405425</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>138.4412710502067</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0209173027159</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.6024389572897</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>5.38284047570059</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>84.77391660562401</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>245.5619442858263</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>22.81817176293609</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>169.2521344095048</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>181.8372934928143</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>169.2521344095063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.9026168854319</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>40.32043864788582</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,16 +24364,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>30.15030327141901</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405077</v>
+        <v>44.73700564187207</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-5.704326028209812e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1196640.674192882</v>
+        <v>1196640.674192883</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1196640.674192882</v>
+        <v>1196640.674192883</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1196640.674192882</v>
+        <v>1196640.674192883</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1196640.674192882</v>
+        <v>1196640.674192883</v>
       </c>
     </row>
     <row r="10">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>189998.52678168</v>
+        <v>189998.5267816801</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126781</v>
@@ -26320,16 +26320,16 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147516</v>
       </c>
       <c r="I2" t="n">
         <v>221965.3149147517</v>
@@ -26350,10 +26350,10 @@
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.4867126779</v>
+        <v>225786.486712678</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765845</v>
+        <v>775688.3472765847</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>147505.3148093454</v>
+        <v>147505.3148093456</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>125923.4353299259</v>
+        <v>125923.4353299258</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26424,22 +26424,22 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707314</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707368</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707381</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.42449670737</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707386</v>
+        <v>6897.424496707401</v>
       </c>
       <c r="K4" t="n">
         <v>6897.424496707359</v>
@@ -26451,13 +26451,13 @@
         <v>14888.2837598009</v>
       </c>
       <c r="N4" t="n">
-        <v>14888.28375980085</v>
+        <v>14888.2837598009</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980086</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980086</v>
+        <v>14888.28375980088</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-760467.8573858923</v>
+        <v>-760793.202476174</v>
       </c>
       <c r="C6" t="n">
-        <v>-101291.497165592</v>
+        <v>-101291.4971655919</v>
       </c>
       <c r="D6" t="n">
         <v>-50723.40354641638</v>
       </c>
       <c r="E6" t="n">
-        <v>-661742.9866824473</v>
+        <v>-661777.724607883</v>
       </c>
       <c r="F6" t="n">
-        <v>113945.3605941372</v>
+        <v>113910.6226687016</v>
       </c>
       <c r="G6" t="n">
-        <v>113945.3605941373</v>
+        <v>113910.6226687016</v>
       </c>
       <c r="H6" t="n">
-        <v>113945.3605941371</v>
+        <v>113910.6226687015</v>
       </c>
       <c r="I6" t="n">
-        <v>113945.3605941372</v>
+        <v>113910.6226687017</v>
       </c>
       <c r="J6" t="n">
-        <v>-58415.6318061435</v>
+        <v>-58450.3697315793</v>
       </c>
       <c r="K6" t="n">
-        <v>113945.3605941372</v>
+        <v>113910.6226687015</v>
       </c>
       <c r="L6" t="n">
-        <v>113945.3605941372</v>
+        <v>113910.6226687015</v>
       </c>
       <c r="M6" t="n">
-        <v>-39771.22771038368</v>
+        <v>-39771.22771038391</v>
       </c>
       <c r="N6" t="n">
         <v>107734.0870989619</v>
       </c>
       <c r="O6" t="n">
-        <v>107734.0870989619</v>
+        <v>107734.0870989618</v>
       </c>
       <c r="P6" t="n">
         <v>107734.0870989617</v>
@@ -26701,13 +26701,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>9.142112354499564e-15</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26722,7 +26722,7 @@
         <v>24.28464749203975</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26796,7 +26796,7 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036087</v>
+        <v>774.4994000036089</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544873</v>
+        <v>513.946793854488</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544875</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>230.7953877432371</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>314.6468996964335</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>127.1027562073891</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>14.02351548697402</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1726459518922</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>15.50983514405434</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27534,31 +27534,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0209173027159</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.6024389572897</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>126.278063287283</v>
       </c>
       <c r="J4" t="n">
-        <v>24.77579277565484</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>4.932574202174479</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.6758738525874</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>207.1110620291632</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>223.8007788264712</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>302.3412117418321</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>202.8810360859568</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>116.8332838366022</v>
       </c>
       <c r="G7" t="n">
         <v>166.9207765545704</v>
@@ -27792,10 +27792,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>130.3038483752176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>93.14874833410812</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>221.4930096916653</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>2.257430671718168</v>
       </c>
       <c r="G10" t="n">
-        <v>118.9110562242358</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
@@ -28032,7 +28032,7 @@
         <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>129.1731816677913</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28299,7 +28299,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>-2.241631118489267e-12</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>2.55795384873636e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29326,7 +29326,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29986,73 +29986,73 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>1.364242052659392e-12</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30469,7 +30469,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="44">
@@ -30703,10 +30703,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32078,37 +32078,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>390.1398273256871</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>154.5219885631796</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>359.7678776111903</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,19 +32789,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>351.5042614518788</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,25 +33020,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>198.5607970756955</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33257,25 +33257,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>531.8166820790245</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33494,25 +33494,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,22 +33731,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>145.7021085929664</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>754.000239683233</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,7 +33755,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33974,7 +33974,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P39" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>216.0947523943934</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34226,7 +34226,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,25 +34699,25 @@
         <v>171.5975747338215</v>
       </c>
       <c r="K2" t="n">
-        <v>379.1447311786283</v>
+        <v>114.903610028826</v>
       </c>
       <c r="L2" t="n">
         <v>523.1672395826492</v>
       </c>
       <c r="M2" t="n">
-        <v>237.8907503582133</v>
+        <v>598.898645927419</v>
       </c>
       <c r="N2" t="n">
-        <v>156.4627322349765</v>
+        <v>593.8096566469607</v>
       </c>
       <c r="O2" t="n">
         <v>515.073541695491</v>
       </c>
       <c r="P2" t="n">
-        <v>401.5484189597194</v>
+        <v>79.74971078823671</v>
       </c>
       <c r="Q2" t="n">
-        <v>223.5443622070357</v>
+        <v>11.22937154713105</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>108.572663502913</v>
       </c>
       <c r="K3" t="n">
-        <v>66.54740417555003</v>
+        <v>49.00257964342026</v>
       </c>
       <c r="L3" t="n">
-        <v>483.5208065392343</v>
+        <v>112.6804612357752</v>
       </c>
       <c r="M3" t="n">
-        <v>151.0451755613482</v>
+        <v>616.7502393113481</v>
       </c>
       <c r="N3" t="n">
         <v>648.9394530366467</v>
@@ -34793,7 +34793,7 @@
         <v>526.5662752277185</v>
       </c>
       <c r="P3" t="n">
-        <v>405.4410429373399</v>
+        <v>328.1211490229292</v>
       </c>
       <c r="Q3" t="n">
         <v>217.7965299697843</v>
@@ -34936,22 +34936,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>83.39712583292157</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
-        <v>558.3972305517163</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M5" t="n">
         <v>638.0987989730422</v>
       </c>
       <c r="N5" t="n">
-        <v>633.6441091513602</v>
+        <v>378.9261176515851</v>
       </c>
       <c r="O5" t="n">
-        <v>526.2530003157322</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P5" t="n">
-        <v>111.8528537874005</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q5" t="n">
         <v>35.33749497130819</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.8578301584805</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
-        <v>138.615755571408</v>
+        <v>219.3214183675542</v>
       </c>
       <c r="M6" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N6" t="n">
         <v>658.7614942451606</v>
       </c>
       <c r="O6" t="n">
-        <v>314.5938733272372</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>428.2502711927643</v>
@@ -35173,22 +35173,22 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>633.6441091513602</v>
+        <v>285.4103156722991</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
       </c>
       <c r="P8" t="n">
-        <v>210.7858894014898</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
         <v>35.33749497130819</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>119.8578301584805</v>
+        <v>28.32808613262426</v>
       </c>
       <c r="K9" t="n">
         <v>332.7559639452625</v>
@@ -35264,10 +35264,10 @@
         <v>658.7614942451606</v>
       </c>
       <c r="O9" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P9" t="n">
-        <v>412.1200778037004</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35729,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>256.1654199113569</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899065</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>217.633843689172</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,19 +36437,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>208.9080170074344</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36668,25 +36668,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>55.96455263125101</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36905,25 +36905,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,22 +37379,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>18.86448192629967</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998997</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,7 +37403,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P39" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>77.54037261451923</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37874,7 +37874,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
